--- a/experiments/cifar10/exp00/acc_log_True.xlsx
+++ b/experiments/cifar10/exp00/acc_log_True.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1334</v>
+        <v>0.1002</v>
       </c>
       <c r="C2">
-        <v>2.907522076797485</v>
+        <v>27477.446334375</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4416</v>
+        <v>0.1087</v>
       </c>
       <c r="C3">
-        <v>1.99907714214325</v>
+        <v>14.98780600128174</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6234</v>
+        <v>0.1131</v>
       </c>
       <c r="C4">
-        <v>1.15037291469574</v>
+        <v>2.583662032699585</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6665</v>
+        <v>0.1105</v>
       </c>
       <c r="C5">
-        <v>1.034361031341553</v>
+        <v>2.30203888015747</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6523</v>
+        <v>0.11</v>
       </c>
       <c r="C6">
-        <v>1.138096810626984</v>
+        <v>2.306557063293457</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6604</v>
+        <v>0.1089</v>
       </c>
       <c r="C7">
-        <v>1.13306615190506</v>
+        <v>2.337076765441894</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.651</v>
+        <v>0.1121</v>
       </c>
       <c r="C8">
-        <v>1.147229395866394</v>
+        <v>2.305518461990356</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6989</v>
+        <v>0.1109</v>
       </c>
       <c r="C9">
-        <v>1.059601486587525</v>
+        <v>2.310256131744385</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7261</v>
+        <v>0.1241</v>
       </c>
       <c r="C10">
-        <v>0.8895210083007813</v>
+        <v>2.315090937042236</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7009</v>
+        <v>0.1164</v>
       </c>
       <c r="C11">
-        <v>1.037279040145874</v>
+        <v>2.298360654067993</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,5400 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7062</v>
+        <v>0.1119</v>
       </c>
       <c r="C12">
-        <v>1.06408883562088</v>
+        <v>2.30222586555481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1163</v>
+      </c>
+      <c r="C13">
+        <v>2.299120582199097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.1304</v>
+      </c>
+      <c r="C14">
+        <v>2.310997428131103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.1327</v>
+      </c>
+      <c r="C15">
+        <v>2.295348140716553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.1277</v>
+      </c>
+      <c r="C16">
+        <v>2.303380228805542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.1332</v>
+      </c>
+      <c r="C17">
+        <v>2.286716454696655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1664</v>
+      </c>
+      <c r="C18">
+        <v>2.208461371231079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.1766</v>
+      </c>
+      <c r="C19">
+        <v>2.091251279067993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1659</v>
+      </c>
+      <c r="C20">
+        <v>2.540516014099121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1678</v>
+      </c>
+      <c r="C21">
+        <v>2.14217343006134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.2216</v>
+      </c>
+      <c r="C22">
+        <v>2.014539031982422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.2296</v>
+      </c>
+      <c r="C23">
+        <v>1.973246426010132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.2702</v>
+      </c>
+      <c r="C24">
+        <v>1.913901909828186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.2756</v>
+      </c>
+      <c r="C25">
+        <v>1.966697193145752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.3174</v>
+      </c>
+      <c r="C26">
+        <v>1.807899763679504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.3144</v>
+      </c>
+      <c r="C27">
+        <v>1.834728242683411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.3333</v>
+      </c>
+      <c r="C28">
+        <v>1.787098524284363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.3465</v>
+      </c>
+      <c r="C29">
+        <v>1.758722294044495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.3095</v>
+      </c>
+      <c r="C30">
+        <v>1.936145378303528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.3725</v>
+      </c>
+      <c r="C31">
+        <v>1.71339817237854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.3731</v>
+      </c>
+      <c r="C32">
+        <v>1.713997192192078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.3358</v>
+      </c>
+      <c r="C33">
+        <v>1.912337573623657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.3817</v>
+      </c>
+      <c r="C34">
+        <v>1.730019544029236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.386</v>
+      </c>
+      <c r="C35">
+        <v>1.655104795646668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.3998</v>
+      </c>
+      <c r="C36">
+        <v>1.604554688453674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.4134</v>
+      </c>
+      <c r="C37">
+        <v>1.594088626861572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.3987</v>
+      </c>
+      <c r="C38">
+        <v>1.675522385978699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.4393</v>
+      </c>
+      <c r="C39">
+        <v>1.532610615539551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.4225</v>
+      </c>
+      <c r="C40">
+        <v>1.583870602798462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.4323</v>
+      </c>
+      <c r="C41">
+        <v>1.565307600975037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.4397</v>
+      </c>
+      <c r="C42">
+        <v>1.609874634170532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.4513</v>
+      </c>
+      <c r="C43">
+        <v>1.503165664291382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.4388</v>
+      </c>
+      <c r="C44">
+        <v>1.625473114204407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.4945</v>
+      </c>
+      <c r="C45">
+        <v>1.414206966590881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.4875</v>
+      </c>
+      <c r="C46">
+        <v>1.448530268478394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.4791</v>
+      </c>
+      <c r="C47">
+        <v>1.449453544807434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.4998</v>
+      </c>
+      <c r="C48">
+        <v>1.396442956542969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.4507</v>
+      </c>
+      <c r="C49">
+        <v>1.80984409866333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.525</v>
+      </c>
+      <c r="C50">
+        <v>1.341909114265442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.5234</v>
+      </c>
+      <c r="C51">
+        <v>1.338661644554138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.5052</v>
+      </c>
+      <c r="C52">
+        <v>1.4296463306427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.5016</v>
+      </c>
+      <c r="C53">
+        <v>1.475211400604248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.5437</v>
+      </c>
+      <c r="C54">
+        <v>1.326340067672729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.5321</v>
+      </c>
+      <c r="C55">
+        <v>1.403212610054016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.5452</v>
+      </c>
+      <c r="C56">
+        <v>1.363478366851807</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.5806</v>
+      </c>
+      <c r="C57">
+        <v>1.243821193885803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.55</v>
+      </c>
+      <c r="C58">
+        <v>1.364390054512024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.5608</v>
+      </c>
+      <c r="C59">
+        <v>1.303681489562988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.5318000000000001</v>
+      </c>
+      <c r="C60">
+        <v>1.547015864562988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.5617</v>
+      </c>
+      <c r="C61">
+        <v>1.287649245262146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.5417</v>
+      </c>
+      <c r="C62">
+        <v>1.527171099472046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.5581</v>
+      </c>
+      <c r="C63">
+        <v>1.391292405509949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.5762</v>
+      </c>
+      <c r="C64">
+        <v>1.30825205154419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.547</v>
+      </c>
+      <c r="C65">
+        <v>1.409495291519165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.5827</v>
+      </c>
+      <c r="C66">
+        <v>1.300583565330505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.532</v>
+      </c>
+      <c r="C67">
+        <v>1.610996134948731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.588</v>
+      </c>
+      <c r="C68">
+        <v>1.376751581001282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.5918</v>
+      </c>
+      <c r="C69">
+        <v>1.27469001083374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.5686</v>
+      </c>
+      <c r="C70">
+        <v>1.525921273040771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.5856</v>
+      </c>
+      <c r="C71">
+        <v>1.342868937301636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.598</v>
+      </c>
+      <c r="C72">
+        <v>1.290023105621338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.6176</v>
+      </c>
+      <c r="C73">
+        <v>1.233126167869568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.6076</v>
+      </c>
+      <c r="C74">
+        <v>1.288004215621948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.5496</v>
+      </c>
+      <c r="C75">
+        <v>1.623968229293823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.6035</v>
+      </c>
+      <c r="C76">
+        <v>1.303439601325989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.6196</v>
+      </c>
+      <c r="C77">
+        <v>1.318858751296997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.5961</v>
+      </c>
+      <c r="C78">
+        <v>1.40636135597229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.6068</v>
+      </c>
+      <c r="C79">
+        <v>1.339001090049744</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.6073</v>
+      </c>
+      <c r="C80">
+        <v>1.422093712615967</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.6323</v>
+      </c>
+      <c r="C81">
+        <v>1.269617896652222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.5770999999999999</v>
+      </c>
+      <c r="C82">
+        <v>1.572194653701782</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.6661</v>
+      </c>
+      <c r="C83">
+        <v>1.167099338912964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.6666</v>
+      </c>
+      <c r="C84">
+        <v>1.174923446083069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.6649</v>
+      </c>
+      <c r="C85">
+        <v>1.195845854759216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.6674</v>
+      </c>
+      <c r="C86">
+        <v>1.21153679561615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.6623</v>
+      </c>
+      <c r="C87">
+        <v>1.241175109481812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.6617</v>
+      </c>
+      <c r="C88">
+        <v>1.251906681632996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.6629</v>
+      </c>
+      <c r="C89">
+        <v>1.280566829109192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.6624</v>
+      </c>
+      <c r="C90">
+        <v>1.283396409034729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.6652</v>
+      </c>
+      <c r="C91">
+        <v>1.293015265274048</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.6637</v>
+      </c>
+      <c r="C92">
+        <v>1.337858402633667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.6655</v>
+      </c>
+      <c r="C93">
+        <v>1.324226340675354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.6619</v>
+      </c>
+      <c r="C94">
+        <v>1.36280311832428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.6624</v>
+      </c>
+      <c r="C95">
+        <v>1.360635220336914</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.6652</v>
+      </c>
+      <c r="C96">
+        <v>1.373214001655579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.6607</v>
+      </c>
+      <c r="C97">
+        <v>1.39531534576416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.6568000000000001</v>
+      </c>
+      <c r="C98">
+        <v>1.425971524429321</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.6611</v>
+      </c>
+      <c r="C99">
+        <v>1.411273230552673</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.6595</v>
+      </c>
+      <c r="C100">
+        <v>1.456068996047974</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.6564</v>
+      </c>
+      <c r="C101">
+        <v>1.490114758682251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0.6579</v>
+      </c>
+      <c r="C102">
+        <v>1.495170840263367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0.6582</v>
+      </c>
+      <c r="C103">
+        <v>1.49564919052124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0.657</v>
+      </c>
+      <c r="C104">
+        <v>1.514201191329956</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0.6563</v>
+      </c>
+      <c r="C105">
+        <v>1.518265722846985</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0.6524</v>
+      </c>
+      <c r="C106">
+        <v>1.548496909332275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0.6587</v>
+      </c>
+      <c r="C107">
+        <v>1.553061632919311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0.6526999999999999</v>
+      </c>
+      <c r="C108">
+        <v>1.571289200210571</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0.6551</v>
+      </c>
+      <c r="C109">
+        <v>1.585041090583801</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0.6577</v>
+      </c>
+      <c r="C110">
+        <v>1.602120513534546</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0.6565</v>
+      </c>
+      <c r="C111">
+        <v>1.628407943725586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0.6536</v>
+      </c>
+      <c r="C112">
+        <v>1.631041957473755</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0.6526</v>
+      </c>
+      <c r="C113">
+        <v>1.614403965759277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0.6551</v>
+      </c>
+      <c r="C114">
+        <v>1.672795841026306</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0.6496</v>
+      </c>
+      <c r="C115">
+        <v>1.678447470855713</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0.6539</v>
+      </c>
+      <c r="C116">
+        <v>1.695586437606811</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0.6529</v>
+      </c>
+      <c r="C117">
+        <v>1.67853926448822</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0.6551</v>
+      </c>
+      <c r="C118">
+        <v>1.709594047164917</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0.6531</v>
+      </c>
+      <c r="C119">
+        <v>1.693091242790222</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0.6448</v>
+      </c>
+      <c r="C120">
+        <v>1.78888800239563</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0.6552</v>
+      </c>
+      <c r="C121">
+        <v>1.705780725860596</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0.6556</v>
+      </c>
+      <c r="C122">
+        <v>1.757712476539612</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0.6555</v>
+      </c>
+      <c r="C123">
+        <v>1.720290629005432</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0.6603</v>
+      </c>
+      <c r="C124">
+        <v>1.706188927268982</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0.6592</v>
+      </c>
+      <c r="C125">
+        <v>1.708113618087769</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0.6585</v>
+      </c>
+      <c r="C126">
+        <v>1.720958274459839</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0.6578000000000001</v>
+      </c>
+      <c r="C127">
+        <v>1.716255861091614</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0.6588000000000001</v>
+      </c>
+      <c r="C128">
+        <v>1.721866829681397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0.6604</v>
+      </c>
+      <c r="C129">
+        <v>1.723954600715637</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0.6599</v>
+      </c>
+      <c r="C130">
+        <v>1.71727886390686</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0.6602</v>
+      </c>
+      <c r="C131">
+        <v>1.724746081161499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0.6581</v>
+      </c>
+      <c r="C132">
+        <v>1.728864612197876</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0.6598000000000001</v>
+      </c>
+      <c r="C133">
+        <v>1.734136383056641</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0.6584</v>
+      </c>
+      <c r="C134">
+        <v>1.73624045753479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0.6593</v>
+      </c>
+      <c r="C135">
+        <v>1.733957205581665</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0.6587</v>
+      </c>
+      <c r="C136">
+        <v>1.740246879577637</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0.6592</v>
+      </c>
+      <c r="C137">
+        <v>1.735592077636719</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0.6573</v>
+      </c>
+      <c r="C138">
+        <v>1.741063056182861</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0.6574</v>
+      </c>
+      <c r="C139">
+        <v>1.748984408569336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0.658</v>
+      </c>
+      <c r="C140">
+        <v>1.74521548538208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0.6583</v>
+      </c>
+      <c r="C141">
+        <v>1.750436069869995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0.6577</v>
+      </c>
+      <c r="C142">
+        <v>1.750727101898193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0.659</v>
+      </c>
+      <c r="C143">
+        <v>1.759712626647949</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0.6574</v>
+      </c>
+      <c r="C144">
+        <v>1.748838477706909</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0.6569</v>
+      </c>
+      <c r="C145">
+        <v>1.757046640777588</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0.6571</v>
+      </c>
+      <c r="C146">
+        <v>1.761314694213867</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0.6555</v>
+      </c>
+      <c r="C147">
+        <v>1.762199085998535</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0.6602</v>
+      </c>
+      <c r="C148">
+        <v>1.761316973114014</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0.6558</v>
+      </c>
+      <c r="C149">
+        <v>1.766653312683105</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0.6586</v>
+      </c>
+      <c r="C150">
+        <v>1.761087058639526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0.6584</v>
+      </c>
+      <c r="C151">
+        <v>1.776192363357544</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0.657</v>
+      </c>
+      <c r="C152">
+        <v>1.777286152267456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0.66</v>
+      </c>
+      <c r="C153">
+        <v>1.771117324066162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0.6586</v>
+      </c>
+      <c r="C154">
+        <v>1.778378048324585</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0.6591</v>
+      </c>
+      <c r="C155">
+        <v>1.783661158370972</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0.6592</v>
+      </c>
+      <c r="C156">
+        <v>1.784548459625244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0.6573</v>
+      </c>
+      <c r="C157">
+        <v>1.777020546340942</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0.6604</v>
+      </c>
+      <c r="C158">
+        <v>1.76995876159668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0.6588000000000001</v>
+      </c>
+      <c r="C159">
+        <v>1.780674234390259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0.6575</v>
+      </c>
+      <c r="C160">
+        <v>1.782067497253418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0.6595</v>
+      </c>
+      <c r="C161">
+        <v>1.78358424987793</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0.66</v>
+      </c>
+      <c r="C162">
+        <v>1.788084436035156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0.6589</v>
+      </c>
+      <c r="C163">
+        <v>1.796575490570068</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0.6593</v>
+      </c>
+      <c r="C164">
+        <v>1.800708129119873</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0.6584</v>
+      </c>
+      <c r="C165">
+        <v>1.795895014572144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0.6568000000000001</v>
+      </c>
+      <c r="C166">
+        <v>1.801278617477417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0.6569</v>
+      </c>
+      <c r="C167">
+        <v>1.80064613494873</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0.6562</v>
+      </c>
+      <c r="C168">
+        <v>1.805078244018555</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0.6584</v>
+      </c>
+      <c r="C169">
+        <v>1.795427302932739</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0.6587</v>
+      </c>
+      <c r="C170">
+        <v>1.80128840675354</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0.6575</v>
+      </c>
+      <c r="C171">
+        <v>1.806474570846558</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0.6571</v>
+      </c>
+      <c r="C172">
+        <v>1.814959475708008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0.6574</v>
+      </c>
+      <c r="C173">
+        <v>1.805675082778931</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0.6574</v>
+      </c>
+      <c r="C174">
+        <v>1.811998276138306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0.6573</v>
+      </c>
+      <c r="C175">
+        <v>1.810983947372437</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0.6582</v>
+      </c>
+      <c r="C176">
+        <v>1.815448812866211</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0.6586</v>
+      </c>
+      <c r="C177">
+        <v>1.803367505264282</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0.6555</v>
+      </c>
+      <c r="C178">
+        <v>1.827195400619507</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0.6564</v>
+      </c>
+      <c r="C179">
+        <v>1.816900982666016</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0.6569</v>
+      </c>
+      <c r="C180">
+        <v>1.823713521957397</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0.6561</v>
+      </c>
+      <c r="C181">
+        <v>1.829884108352661</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0.6556</v>
+      </c>
+      <c r="C182">
+        <v>1.829766691970825</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0.6572</v>
+      </c>
+      <c r="C183">
+        <v>1.827546225738525</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>0.6544</v>
+      </c>
+      <c r="C184">
+        <v>1.825512650680542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>0.655</v>
+      </c>
+      <c r="C185">
+        <v>1.828188081741333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>0.6556</v>
+      </c>
+      <c r="C186">
+        <v>1.832025941467285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>0.6582</v>
+      </c>
+      <c r="C187">
+        <v>1.828996506118775</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>0.6567</v>
+      </c>
+      <c r="C188">
+        <v>1.834997676467895</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>0.6577</v>
+      </c>
+      <c r="C189">
+        <v>1.832618659973144</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>0.6577</v>
+      </c>
+      <c r="C190">
+        <v>1.819473635101318</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>0.6566</v>
+      </c>
+      <c r="C191">
+        <v>1.842114723205566</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>0.6564</v>
+      </c>
+      <c r="C192">
+        <v>1.835596039962769</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>0.6574</v>
+      </c>
+      <c r="C193">
+        <v>1.835210830307007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>0.6568000000000001</v>
+      </c>
+      <c r="C194">
+        <v>1.846750839614868</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>0.6558</v>
+      </c>
+      <c r="C195">
+        <v>1.855637162017822</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>0.6564</v>
+      </c>
+      <c r="C196">
+        <v>1.858681536102295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>0.6574</v>
+      </c>
+      <c r="C197">
+        <v>1.854557271957398</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>0.6565</v>
+      </c>
+      <c r="C198">
+        <v>1.847620153045654</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>0.6555</v>
+      </c>
+      <c r="C199">
+        <v>1.853430783462524</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C200">
+        <v>1.84672813873291</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>0.6551</v>
+      </c>
+      <c r="C201">
+        <v>1.857495903015137</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>0.6546</v>
+      </c>
+      <c r="C202">
+        <v>1.854685641479492</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>0.6578000000000001</v>
+      </c>
+      <c r="C203">
+        <v>1.8438178565979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>0.6583</v>
+      </c>
+      <c r="C204">
+        <v>1.847108679580689</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>0.6576</v>
+      </c>
+      <c r="C205">
+        <v>1.841019911956787</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>0.6561</v>
+      </c>
+      <c r="C206">
+        <v>1.851828569412231</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>0.6551</v>
+      </c>
+      <c r="C207">
+        <v>1.866804624557495</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>0.6548</v>
+      </c>
+      <c r="C208">
+        <v>1.862175984573364</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>0.6558</v>
+      </c>
+      <c r="C209">
+        <v>1.866916164016724</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>0.6569</v>
+      </c>
+      <c r="C210">
+        <v>1.858249840545654</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C211">
+        <v>1.865894454193115</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C212">
+        <v>1.875211563873291</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C213">
+        <v>1.867769579696655</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>0.6541</v>
+      </c>
+      <c r="C214">
+        <v>1.879254431915283</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>0.6545</v>
+      </c>
+      <c r="C215">
+        <v>1.870442501068115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>0.6554</v>
+      </c>
+      <c r="C216">
+        <v>1.879740990066528</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>0.6543</v>
+      </c>
+      <c r="C217">
+        <v>1.877385029602051</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>0.6553</v>
+      </c>
+      <c r="C218">
+        <v>1.874356655502319</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>0.6565</v>
+      </c>
+      <c r="C219">
+        <v>1.876598348999023</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>0.6572</v>
+      </c>
+      <c r="C220">
+        <v>1.883660404205322</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0.6555</v>
+      </c>
+      <c r="C221">
+        <v>1.889692318344116</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>0.6553</v>
+      </c>
+      <c r="C222">
+        <v>1.89647472076416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>0.6553</v>
+      </c>
+      <c r="C223">
+        <v>1.895313856887817</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>0.6555</v>
+      </c>
+      <c r="C224">
+        <v>1.88976616973877</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>0.6532</v>
+      </c>
+      <c r="C225">
+        <v>1.901108905792236</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0.6543</v>
+      </c>
+      <c r="C226">
+        <v>1.901601916503906</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>0.6556</v>
+      </c>
+      <c r="C227">
+        <v>1.891889736175537</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>0.6564</v>
+      </c>
+      <c r="C228">
+        <v>1.890342723464966</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>0.6554</v>
+      </c>
+      <c r="C229">
+        <v>1.908538692092896</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>0.6554</v>
+      </c>
+      <c r="C230">
+        <v>1.900750086593628</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>0.6549</v>
+      </c>
+      <c r="C231">
+        <v>1.89606484375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>0.652</v>
+      </c>
+      <c r="C232">
+        <v>1.909348054504395</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>0.6559</v>
+      </c>
+      <c r="C233">
+        <v>1.8949245262146</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>0.6538</v>
+      </c>
+      <c r="C234">
+        <v>1.907884875869751</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>0.6539</v>
+      </c>
+      <c r="C235">
+        <v>1.90678456993103</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>0.6572</v>
+      </c>
+      <c r="C236">
+        <v>1.904177096557617</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>0.6555</v>
+      </c>
+      <c r="C237">
+        <v>1.910627123260498</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>0.6523</v>
+      </c>
+      <c r="C238">
+        <v>1.906923207855225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>0.656</v>
+      </c>
+      <c r="C239">
+        <v>1.904817129898071</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>0.6536</v>
+      </c>
+      <c r="C240">
+        <v>1.9175903175354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>0.6541</v>
+      </c>
+      <c r="C241">
+        <v>1.920736831283569</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>0.6545</v>
+      </c>
+      <c r="C242">
+        <v>1.91324429473877</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>0.6546</v>
+      </c>
+      <c r="C243">
+        <v>1.916703191375732</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>0.6575</v>
+      </c>
+      <c r="C244">
+        <v>1.897478136444092</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.6546</v>
+      </c>
+      <c r="C245">
+        <v>1.924796730804443</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.6564</v>
+      </c>
+      <c r="C246">
+        <v>1.918863109207153</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.6549</v>
+      </c>
+      <c r="C247">
+        <v>1.911285436630249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.6552</v>
+      </c>
+      <c r="C248">
+        <v>1.923582949447632</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.6535</v>
+      </c>
+      <c r="C249">
+        <v>1.922122339248657</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.6551</v>
+      </c>
+      <c r="C250">
+        <v>1.921564571380615</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.6546</v>
+      </c>
+      <c r="C251">
+        <v>1.914378434371948</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.6544</v>
+      </c>
+      <c r="C252">
+        <v>1.917889044570923</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.6536</v>
+      </c>
+      <c r="C253">
+        <v>1.941458856582642</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.6552</v>
+      </c>
+      <c r="C254">
+        <v>1.936781539916992</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.654</v>
+      </c>
+      <c r="C255">
+        <v>1.936764946365356</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C256">
+        <v>1.924074621963501</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.6553</v>
+      </c>
+      <c r="C257">
+        <v>1.941836489105225</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.6553</v>
+      </c>
+      <c r="C258">
+        <v>1.933604988861084</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.6551</v>
+      </c>
+      <c r="C259">
+        <v>1.939737136077881</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.6555</v>
+      </c>
+      <c r="C260">
+        <v>1.940970776367188</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.657</v>
+      </c>
+      <c r="C261">
+        <v>1.94186628036499</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.6552</v>
+      </c>
+      <c r="C262">
+        <v>1.935340815353394</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.657</v>
+      </c>
+      <c r="C263">
+        <v>1.943293041229248</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.6567</v>
+      </c>
+      <c r="C264">
+        <v>1.93883027305603</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.655</v>
+      </c>
+      <c r="C265">
+        <v>1.945666619873047</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.6552</v>
+      </c>
+      <c r="C266">
+        <v>1.948756811904907</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.6534</v>
+      </c>
+      <c r="C267">
+        <v>1.942425974273682</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.6549</v>
+      </c>
+      <c r="C268">
+        <v>1.957911283111572</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.6538</v>
+      </c>
+      <c r="C269">
+        <v>1.959999310684204</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.6549</v>
+      </c>
+      <c r="C270">
+        <v>1.953833209991455</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.6529</v>
+      </c>
+      <c r="C271">
+        <v>1.964379058837891</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.6552</v>
+      </c>
+      <c r="C272">
+        <v>1.938344566345215</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.6542</v>
+      </c>
+      <c r="C273">
+        <v>1.960121189880371</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.6521</v>
+      </c>
+      <c r="C274">
+        <v>1.973001844406128</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.654</v>
+      </c>
+      <c r="C275">
+        <v>1.961344078826904</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.6534</v>
+      </c>
+      <c r="C276">
+        <v>1.962433431243896</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.6532</v>
+      </c>
+      <c r="C277">
+        <v>1.95877661895752</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.6543</v>
+      </c>
+      <c r="C278">
+        <v>1.95567611656189</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.6556</v>
+      </c>
+      <c r="C279">
+        <v>1.95934626159668</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.6562</v>
+      </c>
+      <c r="C280">
+        <v>1.94868473815918</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.6544</v>
+      </c>
+      <c r="C281">
+        <v>1.964576554489136</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.6559</v>
+      </c>
+      <c r="C282">
+        <v>1.954526763916016</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.6564</v>
+      </c>
+      <c r="C283">
+        <v>1.95672066116333</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.6553</v>
+      </c>
+      <c r="C284">
+        <v>1.956440824890137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.6555</v>
+      </c>
+      <c r="C285">
+        <v>1.971023089981079</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.6524</v>
+      </c>
+      <c r="C286">
+        <v>1.96769482460022</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.6555</v>
+      </c>
+      <c r="C287">
+        <v>1.977058233642578</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.6536999999999999</v>
+      </c>
+      <c r="C288">
+        <v>1.975553229141235</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>0.6554</v>
+      </c>
+      <c r="C289">
+        <v>1.980637086486816</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.655</v>
+      </c>
+      <c r="C290">
+        <v>1.982198482894898</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.656</v>
+      </c>
+      <c r="C291">
+        <v>1.972464345169067</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C292">
+        <v>1.964944199752808</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.6554</v>
+      </c>
+      <c r="C293">
+        <v>1.979064494323731</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.6546</v>
+      </c>
+      <c r="C294">
+        <v>1.980867909622192</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.6569</v>
+      </c>
+      <c r="C295">
+        <v>1.970346565628052</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.6558</v>
+      </c>
+      <c r="C296">
+        <v>1.973939953613281</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.6549</v>
+      </c>
+      <c r="C297">
+        <v>1.976737467575073</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.6556</v>
+      </c>
+      <c r="C298">
+        <v>1.986510886764526</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C299">
+        <v>1.980954136657715</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.6577</v>
+      </c>
+      <c r="C300">
+        <v>1.973833536911011</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.6541</v>
+      </c>
+      <c r="C301">
+        <v>2.00619150428772</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.6566</v>
+      </c>
+      <c r="C302">
+        <v>1.993745331192017</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.6544</v>
+      </c>
+      <c r="C303">
+        <v>1.99792467918396</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.656</v>
+      </c>
+      <c r="C304">
+        <v>1.989977526855469</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.656</v>
+      </c>
+      <c r="C305">
+        <v>1.989996286773682</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.6563</v>
+      </c>
+      <c r="C306">
+        <v>1.987656126785278</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.656</v>
+      </c>
+      <c r="C307">
+        <v>1.984029900741577</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.6559</v>
+      </c>
+      <c r="C308">
+        <v>2.001620013046264</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.6566</v>
+      </c>
+      <c r="C309">
+        <v>1.994873491287231</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.6556</v>
+      </c>
+      <c r="C310">
+        <v>2.002290489578247</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.6528</v>
+      </c>
+      <c r="C311">
+        <v>2.029830715560913</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.655</v>
+      </c>
+      <c r="C312">
+        <v>2.008291290664673</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.6569</v>
+      </c>
+      <c r="C313">
+        <v>2.006177960586548</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.6533</v>
+      </c>
+      <c r="C314">
+        <v>2.009308911514282</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.6558</v>
+      </c>
+      <c r="C315">
+        <v>1.999162614440918</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.656</v>
+      </c>
+      <c r="C316">
+        <v>2.007433381271362</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.6555</v>
+      </c>
+      <c r="C317">
+        <v>2.003311603546142</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.6563</v>
+      </c>
+      <c r="C318">
+        <v>1.992390921783447</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.656</v>
+      </c>
+      <c r="C319">
+        <v>2.008112764358521</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C320">
+        <v>2.006718135070801</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.6541</v>
+      </c>
+      <c r="C321">
+        <v>2.017836173629761</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.6546</v>
+      </c>
+      <c r="C322">
+        <v>2.014708651733399</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.6545</v>
+      </c>
+      <c r="C323">
+        <v>2.020386242294312</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.6552</v>
+      </c>
+      <c r="C324">
+        <v>2.016725406265259</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.6562</v>
+      </c>
+      <c r="C325">
+        <v>2.008889123153687</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.6563</v>
+      </c>
+      <c r="C326">
+        <v>2.011712846374512</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.6561</v>
+      </c>
+      <c r="C327">
+        <v>2.024596733474731</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.6549</v>
+      </c>
+      <c r="C328">
+        <v>2.013888396453857</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.6535</v>
+      </c>
+      <c r="C329">
+        <v>2.024635271835327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.6538</v>
+      </c>
+      <c r="C330">
+        <v>2.015585070037842</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.6524</v>
+      </c>
+      <c r="C331">
+        <v>2.023064101409912</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.652</v>
+      </c>
+      <c r="C332">
+        <v>2.022591065597534</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.6536</v>
+      </c>
+      <c r="C333">
+        <v>2.012643671035767</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.6536</v>
+      </c>
+      <c r="C334">
+        <v>2.026742181015015</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.6513</v>
+      </c>
+      <c r="C335">
+        <v>2.039896353912353</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.6516</v>
+      </c>
+      <c r="C336">
+        <v>2.02797484703064</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.6553</v>
+      </c>
+      <c r="C337">
+        <v>2.02249454498291</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.6572</v>
+      </c>
+      <c r="C338">
+        <v>2.022246961975098</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.6542</v>
+      </c>
+      <c r="C339">
+        <v>2.025689649200439</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.6555</v>
+      </c>
+      <c r="C340">
+        <v>2.017784401321411</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.6548</v>
+      </c>
+      <c r="C341">
+        <v>2.022896350097656</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.6533</v>
+      </c>
+      <c r="C342">
+        <v>2.022982679748535</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.6551</v>
+      </c>
+      <c r="C343">
+        <v>2.030650975036621</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.6531</v>
+      </c>
+      <c r="C344">
+        <v>2.055847894287109</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.6535</v>
+      </c>
+      <c r="C345">
+        <v>2.032628413391113</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.6528</v>
+      </c>
+      <c r="C346">
+        <v>2.038675817108154</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.6525</v>
+      </c>
+      <c r="C347">
+        <v>2.040520218276978</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.6532</v>
+      </c>
+      <c r="C348">
+        <v>2.041012550354004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.6541</v>
+      </c>
+      <c r="C349">
+        <v>2.044848634338379</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.6548</v>
+      </c>
+      <c r="C350">
+        <v>2.036483507919312</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.6538</v>
+      </c>
+      <c r="C351">
+        <v>2.036677451324463</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.6563</v>
+      </c>
+      <c r="C352">
+        <v>2.031718008804321</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.6555</v>
+      </c>
+      <c r="C353">
+        <v>2.031177642822266</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.6563</v>
+      </c>
+      <c r="C354">
+        <v>2.040775147247314</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.6566</v>
+      </c>
+      <c r="C355">
+        <v>2.042325701904297</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.6553</v>
+      </c>
+      <c r="C356">
+        <v>2.044959279251099</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.6566</v>
+      </c>
+      <c r="C357">
+        <v>2.052301735687256</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.6543</v>
+      </c>
+      <c r="C358">
+        <v>2.050547745513916</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.6584</v>
+      </c>
+      <c r="C359">
+        <v>2.040558282470703</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.6554</v>
+      </c>
+      <c r="C360">
+        <v>2.05839153251648</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.6567</v>
+      </c>
+      <c r="C361">
+        <v>2.04754214553833</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.6561</v>
+      </c>
+      <c r="C362">
+        <v>2.06231541633606</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.6566</v>
+      </c>
+      <c r="C363">
+        <v>2.061124578475952</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.6555</v>
+      </c>
+      <c r="C364">
+        <v>2.068043686294556</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.6573</v>
+      </c>
+      <c r="C365">
+        <v>2.057849777603149</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.6573</v>
+      </c>
+      <c r="C366">
+        <v>2.069220267486572</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.6549</v>
+      </c>
+      <c r="C367">
+        <v>2.070234398269653</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.6551</v>
+      </c>
+      <c r="C368">
+        <v>2.060627835083008</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.6544</v>
+      </c>
+      <c r="C369">
+        <v>2.068570330047607</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.6569</v>
+      </c>
+      <c r="C370">
+        <v>2.062319760131836</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.6544</v>
+      </c>
+      <c r="C371">
+        <v>2.058985820770264</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.6544</v>
+      </c>
+      <c r="C372">
+        <v>2.077631018066406</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.6542</v>
+      </c>
+      <c r="C373">
+        <v>2.075135272216797</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.6543</v>
+      </c>
+      <c r="C374">
+        <v>2.059666638183594</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.6556</v>
+      </c>
+      <c r="C375">
+        <v>2.057287213897705</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.6534</v>
+      </c>
+      <c r="C376">
+        <v>2.072158474349976</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.655</v>
+      </c>
+      <c r="C377">
+        <v>2.07222292137146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.6559</v>
+      </c>
+      <c r="C378">
+        <v>2.067303912353516</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.6546</v>
+      </c>
+      <c r="C379">
+        <v>2.068436159896851</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C380">
+        <v>2.068356824874878</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.6566</v>
+      </c>
+      <c r="C381">
+        <v>2.062005535888672</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C382">
+        <v>2.069900949859619</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.6548</v>
+      </c>
+      <c r="C383">
+        <v>2.077880277633667</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C384">
+        <v>2.077889094161987</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.6566</v>
+      </c>
+      <c r="C385">
+        <v>2.07547816619873</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.6556</v>
+      </c>
+      <c r="C386">
+        <v>2.067435873413086</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.6544</v>
+      </c>
+      <c r="C387">
+        <v>2.087131468963623</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.6543</v>
+      </c>
+      <c r="C388">
+        <v>2.083388974761963</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.6546</v>
+      </c>
+      <c r="C389">
+        <v>2.084057033920288</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C390">
+        <v>2.082915592956543</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.6546</v>
+      </c>
+      <c r="C391">
+        <v>2.084875603103638</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.6538</v>
+      </c>
+      <c r="C392">
+        <v>2.082422549819946</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.6543</v>
+      </c>
+      <c r="C393">
+        <v>2.09268822593689</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C394">
+        <v>2.091848886489868</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.6549</v>
+      </c>
+      <c r="C395">
+        <v>2.080692441177368</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.6551</v>
+      </c>
+      <c r="C396">
+        <v>2.088198305130005</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0.6553</v>
+      </c>
+      <c r="C397">
+        <v>2.076088564682007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0.6552</v>
+      </c>
+      <c r="C398">
+        <v>2.078344032669067</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0.656</v>
+      </c>
+      <c r="C399">
+        <v>2.08532585067749</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0.6556</v>
+      </c>
+      <c r="C400">
+        <v>2.081436828231812</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0.6561</v>
+      </c>
+      <c r="C401">
+        <v>2.080132238006592</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0.6559</v>
+      </c>
+      <c r="C402">
+        <v>2.080907094192505</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0.6568000000000001</v>
+      </c>
+      <c r="C403">
+        <v>2.085440500640869</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0.6553</v>
+      </c>
+      <c r="C404">
+        <v>2.095200047302246</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0.6558</v>
+      </c>
+      <c r="C405">
+        <v>2.094181645584106</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0.6563</v>
+      </c>
+      <c r="C406">
+        <v>2.079079494094849</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>0.6566</v>
+      </c>
+      <c r="C407">
+        <v>2.090087921524048</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>0.6549</v>
+      </c>
+      <c r="C408">
+        <v>2.104552429580688</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>0.6565</v>
+      </c>
+      <c r="C409">
+        <v>2.100872741699219</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>0.6587</v>
+      </c>
+      <c r="C410">
+        <v>2.096647911071778</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>0.6573</v>
+      </c>
+      <c r="C411">
+        <v>2.110240193176269</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>0.6558</v>
+      </c>
+      <c r="C412">
+        <v>2.106560163879394</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>0.6559</v>
+      </c>
+      <c r="C413">
+        <v>2.109459572601319</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C414">
+        <v>2.102783187484741</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>0.6553</v>
+      </c>
+      <c r="C415">
+        <v>2.121779511642456</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>0.656</v>
+      </c>
+      <c r="C416">
+        <v>2.114025226211548</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>0.654</v>
+      </c>
+      <c r="C417">
+        <v>2.137780756759644</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>0.656</v>
+      </c>
+      <c r="C418">
+        <v>2.138483069610596</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <v>0.656</v>
+      </c>
+      <c r="C419">
+        <v>2.128073194885254</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <v>0.6561</v>
+      </c>
+      <c r="C420">
+        <v>2.112386475753784</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <v>0.6566</v>
+      </c>
+      <c r="C421">
+        <v>2.117730688476562</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <v>0.6536999999999999</v>
+      </c>
+      <c r="C422">
+        <v>2.121710188674927</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <v>0.6519</v>
+      </c>
+      <c r="C423">
+        <v>2.115908699035645</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <v>0.6543</v>
+      </c>
+      <c r="C424">
+        <v>2.115206661224365</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <v>0.6544</v>
+      </c>
+      <c r="C425">
+        <v>2.114895676803589</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <v>0.6573</v>
+      </c>
+      <c r="C426">
+        <v>2.107125687789917</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <v>0.6571</v>
+      </c>
+      <c r="C427">
+        <v>2.114926536560059</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <v>0.655</v>
+      </c>
+      <c r="C428">
+        <v>2.11535579032898</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0.6553</v>
+      </c>
+      <c r="C429">
+        <v>2.11677815284729</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0.6558</v>
+      </c>
+      <c r="C430">
+        <v>2.128794801712036</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <v>0.6569</v>
+      </c>
+      <c r="C431">
+        <v>2.120636676025391</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <v>0.654</v>
+      </c>
+      <c r="C432">
+        <v>2.117505589675903</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <v>0.6556</v>
+      </c>
+      <c r="C433">
+        <v>2.118850699615479</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <v>0.6559</v>
+      </c>
+      <c r="C434">
+        <v>2.114684484863281</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <v>0.6542</v>
+      </c>
+      <c r="C435">
+        <v>2.126004045104981</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <v>0.6555</v>
+      </c>
+      <c r="C436">
+        <v>2.111496149063111</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C437">
+        <v>2.122350438690185</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <v>0.6564</v>
+      </c>
+      <c r="C438">
+        <v>2.11863796043396</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <v>0.6533</v>
+      </c>
+      <c r="C439">
+        <v>2.137519466400147</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <v>0.6549</v>
+      </c>
+      <c r="C440">
+        <v>2.136445268249512</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <v>0.6522</v>
+      </c>
+      <c r="C441">
+        <v>2.144353990936279</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>0.6523</v>
+      </c>
+      <c r="C442">
+        <v>2.138787758255005</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>0.6554</v>
+      </c>
+      <c r="C443">
+        <v>2.138517552185059</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>0.6543</v>
+      </c>
+      <c r="C444">
+        <v>2.121968891143799</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>0.6533</v>
+      </c>
+      <c r="C445">
+        <v>2.128415478897095</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>0.6536999999999999</v>
+      </c>
+      <c r="C446">
+        <v>2.135221931838989</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>0.6536</v>
+      </c>
+      <c r="C447">
+        <v>2.138992447280884</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>0.6531</v>
+      </c>
+      <c r="C448">
+        <v>2.143092132568359</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>0.6525</v>
+      </c>
+      <c r="C449">
+        <v>2.128511833190918</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>0.655</v>
+      </c>
+      <c r="C450">
+        <v>2.127384104156494</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>0.6539</v>
+      </c>
+      <c r="C451">
+        <v>2.12656477432251</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>0.6549</v>
+      </c>
+      <c r="C452">
+        <v>2.130999769210816</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>0.6538</v>
+      </c>
+      <c r="C453">
+        <v>2.129776527404785</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>0.6542</v>
+      </c>
+      <c r="C454">
+        <v>2.135414571762085</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>0.656</v>
+      </c>
+      <c r="C455">
+        <v>2.140765003585815</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>0.6526</v>
+      </c>
+      <c r="C456">
+        <v>2.148592281341553</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>0.6541</v>
+      </c>
+      <c r="C457">
+        <v>2.135633894729614</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>0.6549</v>
+      </c>
+      <c r="C458">
+        <v>2.144286026763916</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>0.6559</v>
+      </c>
+      <c r="C459">
+        <v>2.130067636489868</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>0.6538</v>
+      </c>
+      <c r="C460">
+        <v>2.156707288360596</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>0.6564</v>
+      </c>
+      <c r="C461">
+        <v>2.137198085021973</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>0.6552</v>
+      </c>
+      <c r="C462">
+        <v>2.136259307098389</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>0.6565</v>
+      </c>
+      <c r="C463">
+        <v>2.138667332839966</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>0.6546999999999999</v>
+      </c>
+      <c r="C464">
+        <v>2.146904594421387</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>0.6561</v>
+      </c>
+      <c r="C465">
+        <v>2.132304300308228</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C466">
+        <v>2.126058548355103</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>0.6585</v>
+      </c>
+      <c r="C467">
+        <v>2.128927624511719</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>0.6565</v>
+      </c>
+      <c r="C468">
+        <v>2.136302949142456</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>0.6603</v>
+      </c>
+      <c r="C469">
+        <v>2.12652991104126</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>0.6577</v>
+      </c>
+      <c r="C470">
+        <v>2.140464446258545</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>0.6544</v>
+      </c>
+      <c r="C471">
+        <v>2.155976244354248</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>0.6551</v>
+      </c>
+      <c r="C472">
+        <v>2.153011656951904</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>0.6551</v>
+      </c>
+      <c r="C473">
+        <v>2.153953583145142</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>0.6546</v>
+      </c>
+      <c r="C474">
+        <v>2.145420073699951</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>0.6552</v>
+      </c>
+      <c r="C475">
+        <v>2.15278694267273</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>0.6572</v>
+      </c>
+      <c r="C476">
+        <v>2.1390362159729</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>0.6565</v>
+      </c>
+      <c r="C477">
+        <v>2.153924901199341</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>0.6556</v>
+      </c>
+      <c r="C478">
+        <v>2.158614961624146</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>0.6556999999999999</v>
+      </c>
+      <c r="C479">
+        <v>2.14449093170166</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>0.6555</v>
+      </c>
+      <c r="C480">
+        <v>2.15745489654541</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>0.6559</v>
+      </c>
+      <c r="C481">
+        <v>2.148564646911621</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>0.6529</v>
+      </c>
+      <c r="C482">
+        <v>2.165808379364014</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>0.6541</v>
+      </c>
+      <c r="C483">
+        <v>2.171571842193603</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>0.653</v>
+      </c>
+      <c r="C484">
+        <v>2.16281471862793</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>0.6567</v>
+      </c>
+      <c r="C485">
+        <v>2.1497324634552</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>0.6539</v>
+      </c>
+      <c r="C486">
+        <v>2.16748031539917</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>0.654</v>
+      </c>
+      <c r="C487">
+        <v>2.177986925888062</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>0.6548</v>
+      </c>
+      <c r="C488">
+        <v>2.176835152435303</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>0.6548</v>
+      </c>
+      <c r="C489">
+        <v>2.166359309005737</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>0.6535</v>
+      </c>
+      <c r="C490">
+        <v>2.178639860916137</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>0.6575</v>
+      </c>
+      <c r="C491">
+        <v>2.169502975463867</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>0.6535</v>
+      </c>
+      <c r="C492">
+        <v>2.19240181350708</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>0.6535</v>
+      </c>
+      <c r="C493">
+        <v>2.179582775497436</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>0.6542</v>
+      </c>
+      <c r="C494">
+        <v>2.166976971054077</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>0.6551</v>
+      </c>
+      <c r="C495">
+        <v>2.177065832901001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>0.6541</v>
+      </c>
+      <c r="C496">
+        <v>2.159322685623169</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>0.6558</v>
+      </c>
+      <c r="C497">
+        <v>2.159803932571411</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>0.6543</v>
+      </c>
+      <c r="C498">
+        <v>2.164925902175904</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>0.6542</v>
+      </c>
+      <c r="C499">
+        <v>2.167400467681885</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>0.6532</v>
+      </c>
+      <c r="C500">
+        <v>2.159389259719849</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>0.6549</v>
+      </c>
+      <c r="C501">
+        <v>2.169743064880371</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>0.6553</v>
+      </c>
+      <c r="C502">
+        <v>2.174164921569824</v>
       </c>
     </row>
   </sheetData>
